--- a/data/trans_orig/Q02D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R-Estudios-trans_orig.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>6.150969664153452</v>
+        <v>6.15096966415345</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>5.574313020012625</v>
@@ -678,7 +678,7 @@
         <v>6.455457430293339</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>8.44273380244651</v>
+        <v>8.442733802446512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6.884456764323176</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.193354009024157</v>
+        <v>5.157952341031621</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.027846883479635</v>
+        <v>4.980331649548862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.608819422267228</v>
+        <v>5.636800773189246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.736180006462321</v>
+        <v>4.615167638215016</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.564543170710273</v>
+        <v>5.593267052348315</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.018105719407902</v>
+        <v>6.045136468479299</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.482363128725615</v>
+        <v>7.475733721921195</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.686672069157666</v>
+        <v>5.58178913400018</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.682177413181241</v>
+        <v>5.673739542357349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.809889497226555</v>
+        <v>5.832011504523224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.025848002683516</v>
+        <v>7.024055086726692</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.656750465828605</v>
+        <v>5.757197123575456</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.348267618285858</v>
+        <v>7.350904283977907</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.158416264670336</v>
+        <v>6.18136512048167</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.807876818968554</v>
+        <v>7.762476120588959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.16605932733392</v>
+        <v>10.33956290199332</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.987512192391035</v>
+        <v>6.920454380777458</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.939842854835943</v>
+        <v>6.969417318103303</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.525939852589222</v>
+        <v>9.446669542902969</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.880835448602623</v>
+        <v>8.803801324646736</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.801580069962882</v>
+        <v>6.80095839829638</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6.542150089149379</v>
+        <v>6.555406472485838</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8.500982425467871</v>
+        <v>8.531942742248162</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>8.425852044206573</v>
+        <v>8.343332085787308</v>
       </c>
     </row>
     <row r="7">
@@ -802,10 +802,10 @@
         <v>4.82713232890152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.113539064012291</v>
+        <v>7.11353906401229</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.684746179811357</v>
+        <v>5.684746179811358</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>6.300669049322988</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.074865118842269</v>
+        <v>3.026874966939198</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.5475170895876</v>
+        <v>4.555479189974594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.526121478643671</v>
+        <v>6.624474517895999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.956527983652903</v>
+        <v>4.884534610197772</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.840353929625985</v>
+        <v>5.856486065782861</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.596377434595602</v>
+        <v>6.58514255639142</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.520458987528249</v>
+        <v>8.523560314789187</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.292511346983788</v>
+        <v>7.289946236554069</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.826888597143165</v>
+        <v>4.811421900257694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.836637399350781</v>
+        <v>5.844568047575557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7.901924161905922</v>
+        <v>7.874205119265416</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.527786624058185</v>
+        <v>6.524253127933075</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.883717638601255</v>
+        <v>3.808540163523121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.126258554301381</v>
+        <v>5.118301911745048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.652094513065432</v>
+        <v>7.723334330780408</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.811981245441675</v>
+        <v>6.846951756097169</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>6.827440134130546</v>
+        <v>6.808803119944466</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.120276086038542</v>
+        <v>7.118225772954647</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>9.438618648637719</v>
+        <v>9.475079282583851</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>8.74823976071314</v>
+        <v>8.693678678673052</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>5.480662129674829</v>
+        <v>5.500086300425862</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.228683741255153</v>
+        <v>6.211839927717749</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8.628107012669206</v>
+        <v>8.589624273624258</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>7.624990375727149</v>
+        <v>7.692143807934229</v>
       </c>
     </row>
     <row r="10">
@@ -935,16 +935,16 @@
         <v>3.682569967388687</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4.550339683045366</v>
+        <v>4.550339683045367</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>6.466177477504621</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.650426801829461</v>
+        <v>7.650426801829463</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>5.779665823647539</v>
+        <v>5.77966582364754</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>6.919014139059534</v>
@@ -956,16 +956,16 @@
         <v>8.430826177608234</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.880773009686147</v>
+        <v>4.880773009686148</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>5.875088099908154</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8.204144525707871</v>
+        <v>8.204144525707873</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>8.130135937620055</v>
+        <v>8.130135937620057</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.081033126778791</v>
+        <v>3.10456515623456</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.067272238246025</v>
+        <v>4.084197554325057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.728276638450735</v>
+        <v>5.739724264537869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.158163585862801</v>
+        <v>6.137291107529996</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.084803241681066</v>
+        <v>5.071538367655297</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.361392481691853</v>
+        <v>6.403035756060363</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.608596305046717</v>
+        <v>8.576399308900044</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.330366399593573</v>
+        <v>7.448449218380237</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.332343048055637</v>
+        <v>4.423673286600637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.503335341058315</v>
+        <v>5.473082527034512</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7.612101769372678</v>
+        <v>7.675088979325137</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>7.210220629631158</v>
+        <v>7.244432551307511</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.450666966230297</v>
+        <v>4.496783797820561</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.06043015938957</v>
+        <v>5.07259338751363</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.275439421652795</v>
+        <v>7.312533751028761</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.40162072510826</v>
+        <v>9.94499919879687</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.698630249313894</v>
+        <v>6.625093153475726</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.42633422815509</v>
+        <v>7.50407227283985</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.30082514280335</v>
+        <v>10.27380635358692</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.645822359846324</v>
+        <v>9.80632528732465</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.509964715034676</v>
+        <v>5.561700737619504</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.283512225967903</v>
+        <v>6.268606603179591</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8.815687180634784</v>
+        <v>8.848546935734349</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.381571644221417</v>
+        <v>9.310477034819577</v>
       </c>
     </row>
     <row r="13">
@@ -1074,7 +1074,7 @@
         <v>4.912742609612541</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.909362374097072</v>
+        <v>6.909362374097071</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>6.136569914542667</v>
@@ -1089,13 +1089,13 @@
         <v>8.954587639763137</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>7.930097976943477</v>
+        <v>7.93009797694348</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>5.344440530702362</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6.034469508910322</v>
+        <v>6.034469508910323</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>8.132566247362247</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.644581461963075</v>
+        <v>3.650941753542623</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.667264583595142</v>
+        <v>4.703838619009883</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.534947996626244</v>
+        <v>6.5317814301929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.497634883101365</v>
+        <v>5.434826932703897</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.864502835868341</v>
+        <v>5.878114605525252</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.533274304152508</v>
+        <v>6.540786250274529</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>8.560031080129733</v>
+        <v>8.574119836134534</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>7.347813429173589</v>
+        <v>7.380504150069722</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.079761788589837</v>
+        <v>5.087358914033572</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.883176692790681</v>
+        <v>5.854895190800358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7.861639981432181</v>
+        <v>7.835625516658517</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.739895447038279</v>
+        <v>6.798106641846479</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.363671523177787</v>
+        <v>4.322906780933084</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.148035454817265</v>
+        <v>5.184186485469496</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.357425182196678</v>
+        <v>7.340127063130301</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.015123261330483</v>
+        <v>7.015620344490151</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>6.554524582296491</v>
+        <v>6.560538917187563</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.981092088611613</v>
+        <v>6.97737893968058</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.356797114407669</v>
+        <v>9.345551043100592</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>8.523923552788748</v>
+        <v>8.587694828535996</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>5.595733349135844</v>
+        <v>5.61218116304787</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6.1996069754823</v>
+        <v>6.193408104870162</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.422973024225335</v>
+        <v>8.424513243608452</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>7.709904503175761</v>
+        <v>7.776249267272196</v>
       </c>
     </row>
     <row r="16">
